--- a/biology/Zoologie/Charles_Christopher_Adams/Charles_Christopher_Adams.xlsx
+++ b/biology/Zoologie/Charles_Christopher_Adams/Charles_Christopher_Adams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Christopher Adams est un zoologiste américain, né le 23 juillet 1873 à Clinton dans l'Illinois et mort le 22 mai 1955 à Albany dans l'État de New York.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l’Université Wesleyenne de l'Illinois, à l’université Harvard et à l’université de Chicago. De 1906 à 1907, il travaille pour la Cincinnati Society of Natural History et pour le muséum de l’université de Cincinnati. De 1914 à 1916, il est professeur assistant en zoologie forestière à l’université de Syracuse. À partir de 1919, il dirige la station expérimentale Roosevelt sur la faune forestière.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>An Ecological Survey of Isle Royal, Lake Superior, en collaboration (1909)
 Guide to the Study of Animal Ecology (1915)
@@ -575,7 +591,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Charles Christopher Adams » (voir la liste des auteurs) (version du 22 juillet 2007).</t>
         </is>
